--- a/buildings.xlsx
+++ b/buildings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suleiman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suleiman/Desktop/CCT211_GP/building-manager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{22D6B4A5-AF77-694E-AFEC-367D047E55DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACB2ADE-8FBF-8E45-9376-4AA73E4CFEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{9A8EE8E2-75C9-344C-BD8D-C2311A7B0A5D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Address</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Postal Code</t>
   </si>
   <si>
-    <t>Project Modification Progress</t>
-  </si>
-  <si>
-    <t>Project Construction Progress</t>
-  </si>
-  <si>
     <t>1055-A Forestwood Drive</t>
   </si>
   <si>
@@ -64,33 +58,12 @@
     <t>$15, 647.97 CAD</t>
   </si>
   <si>
-    <t>85% - 6 of 7 Floors Modified</t>
-  </si>
-  <si>
-    <t>0% - Pending Completion of Modification</t>
-  </si>
-  <si>
     <t>627 Granite Lane</t>
   </si>
   <si>
-    <t>100% - 23 of 23 Floors Modified</t>
-  </si>
-  <si>
-    <t>64% - Floor 15 of 23 Under Construction</t>
-  </si>
-  <si>
-    <t>Total Building Floors</t>
-  </si>
-  <si>
     <t>2090 Verbote Road</t>
   </si>
   <si>
-    <t>100% - 36 of 36 Floors Modified</t>
-  </si>
-  <si>
-    <t>0% - Pending Submission of Modifications</t>
-  </si>
-  <si>
     <t>$48, 864, 903.45 AUD</t>
   </si>
   <si>
@@ -244,7 +217,13 @@
     <t>Office Space Lease</t>
   </si>
   <si>
-    <t>Building Construction</t>
+    <t>Total Stories</t>
+  </si>
+  <si>
+    <t>Building ID</t>
+  </si>
+  <si>
+    <t>Site Construction</t>
   </si>
 </sst>
 </file>
@@ -291,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -362,6 +341,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -387,9 +381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,139 +756,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387412D9-92EA-5642-9E91-0DEB3FD174B4}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="39" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="29.1640625" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
         <v>2600</v>
-      </c>
-      <c r="D3" s="4">
-        <v>23</v>
       </c>
       <c r="E3" s="4">
         <v>23</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="4">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="D4" s="10">
         <v>17003</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="10">
         <v>40</v>
       </c>
-      <c r="E4" s="11">
+      <c r="F4" s="10">
         <v>36</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>19</v>
+      <c r="G4" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -923,81 +906,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>31</v>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>1500</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>2000</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -1006,35 +989,35 @@
         <v>0</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>25</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1400</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>0</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="H4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1065,108 +1048,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="A1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>301</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>150</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="22"/>
+      <c r="C2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>302</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>215</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="C3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>303</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>2500</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="C4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
